--- a/data/US_GasPrice_1997-2019.xlsx
+++ b/data/US_GasPrice_1997-2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnviroDev_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5897C3E-F680-4FF2-948A-4A28D182E7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD06DF-51FB-45AA-977C-E414E2B7B802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0589A854-974F-4302-8C97-9944DA52A983}"/>
   </bookViews>
@@ -38,16 +38,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>NG Price</t>
+    <t>NG_Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,6 +56,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,10 +80,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,13 +403,16 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -418,184 +420,184 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>35611</v>
+      <c r="A2" s="3">
+        <v>1997</v>
       </c>
       <c r="B2" s="1">
         <v>3.59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>35976</v>
+      <c r="A3" s="3">
+        <v>1998</v>
       </c>
       <c r="B3" s="1">
         <v>3.14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>36341</v>
+      <c r="A4" s="3">
+        <v>1999</v>
       </c>
       <c r="B4" s="1">
         <v>3.12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>36707</v>
+      <c r="A5" s="3">
+        <v>2000</v>
       </c>
       <c r="B5" s="1">
         <v>4.45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>37072</v>
+      <c r="A6" s="3">
+        <v>2001</v>
       </c>
       <c r="B6" s="1">
         <v>5.24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>37437</v>
+      <c r="A7" s="3">
+        <v>2002</v>
       </c>
       <c r="B7" s="1">
         <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>37802</v>
+      <c r="A8" s="3">
+        <v>2003</v>
       </c>
       <c r="B8" s="1">
         <v>5.89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>38168</v>
+      <c r="A9" s="3">
+        <v>2004</v>
       </c>
       <c r="B9" s="1">
         <v>6.53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>38533</v>
+      <c r="A10" s="3">
+        <v>2005</v>
       </c>
       <c r="B10" s="1">
         <v>8.56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>38898</v>
+      <c r="A11" s="3">
+        <v>2006</v>
       </c>
       <c r="B11" s="1">
         <v>7.87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>39263</v>
+      <c r="A12" s="3">
+        <v>2007</v>
       </c>
       <c r="B12" s="1">
         <v>7.68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>39629</v>
+      <c r="A13" s="3">
+        <v>2008</v>
       </c>
       <c r="B13" s="1">
         <v>9.65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>39994</v>
+      <c r="A14" s="3">
+        <v>2009</v>
       </c>
       <c r="B14" s="1">
         <v>5.33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>40359</v>
+      <c r="A15" s="3">
+        <v>2010</v>
       </c>
       <c r="B15" s="1">
         <v>5.49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>40724</v>
+      <c r="A16" s="3">
+        <v>2011</v>
       </c>
       <c r="B16" s="1">
         <v>5.13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>41090</v>
+      <c r="A17" s="3">
+        <v>2012</v>
       </c>
       <c r="B17" s="1">
         <v>3.88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>41455</v>
+      <c r="A18" s="3">
+        <v>2013</v>
       </c>
       <c r="B18" s="1">
         <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>41820</v>
+      <c r="A19" s="3">
+        <v>2014</v>
       </c>
       <c r="B19" s="1">
         <v>5.62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>42185</v>
+      <c r="A20" s="3">
+        <v>2015</v>
       </c>
       <c r="B20" s="1">
         <v>3.93</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>42551</v>
+      <c r="A21" s="3">
+        <v>2016</v>
       </c>
       <c r="B21" s="1">
         <v>3.51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>42916</v>
+      <c r="A22" s="3">
+        <v>2017</v>
       </c>
       <c r="B22" s="1">
         <v>4.08</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>43281</v>
+      <c r="A23" s="3">
+        <v>2018</v>
       </c>
       <c r="B23" s="1">
         <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>43646</v>
+      <c r="A24" s="3">
+        <v>2019</v>
       </c>
       <c r="B24" s="1">
         <v>3.9</v>
